--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="472">
   <si>
     <t>ID_Th230</t>
   </si>
@@ -1315,6 +1315,99 @@
   </si>
   <si>
     <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>230-ZC170517</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>230-ZC170517</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>230-ZC170517</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>230-ZC170517</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>230-ZC170517</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
   </si>
   <si>
     <t>ID_Th230</t>
@@ -1668,7 +1761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -1862,6 +1955,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1907,7 +2006,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
@@ -1988,6 +2087,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -2409,24 +2514,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>665.66669999999999</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2458,21 +2563,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="B2" s="0">
         <v>4435.3999999999996</v>
@@ -2486,10 +2591,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>65535</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="492">
   <si>
     <t>ID_Th230</t>
   </si>
@@ -1438,6 +1438,66 @@
   </si>
   <si>
     <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -1961,6 +2021,10 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2006,7 +2070,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
@@ -2093,6 +2157,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -2464,24 +2532,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>16115.688</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="533">
   <si>
     <t>ID_Th230</t>
   </si>
@@ -1498,6 +1498,129 @@
   </si>
   <si>
     <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>sddf</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>sddf</t>
+  </si>
+  <si>
+    <t>sfasf</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>sddf</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>RY_Th230</t>
+  </si>
+  <si>
+    <t>RX_Th230</t>
+  </si>
+  <si>
+    <t>CY_Th230</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -2025,6 +2148,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2070,7 +2199,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
@@ -2161,6 +2290,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -2631,21 +2766,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>456</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="B2" s="0">
         <v>4435.3999999999996</v>
@@ -2659,7 +2794,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="B3" s="0">
         <v>65535</v>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>RY_Th230</t>
   </si>
@@ -325,6 +325,66 @@
   </si>
   <si>
     <t>RYb_Th230</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>testspike</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>testspike</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
   </si>
 </sst>
 </file>
@@ -648,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -776,6 +836,9 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -821,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
@@ -836,6 +899,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -1207,21 +1273,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B2" s="0">
         <v>16115.688</v>
@@ -1235,7 +1301,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B3" s="0">
         <v>65535</v>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>RY_Th230</t>
   </si>
@@ -358,6 +358,45 @@
   </si>
   <si>
     <t>testspike</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>RX_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
   <si>
     <t>RY_Th229</t>
@@ -708,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -839,6 +878,8 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -884,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
@@ -902,6 +943,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -1273,21 +1316,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0">
         <v>16115.688</v>
@@ -1301,7 +1344,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B3" s="0">
         <v>65535</v>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jweis/MATLAB-Drive/UThProcessor/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jweis/MATLAB-Drive/ICPro/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DFB7C-CB30-0A43-AEB6-3D536D776389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DECFA-E6B2-4445-881F-9E0F2D9A137E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" activeTab="2"/>
   </bookViews>
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>ID_Th230</t>
+  </si>
+  <si>
+    <t>230-ZC170517</t>
+  </si>
   <si>
     <t>RY_Th230</t>
   </si>
   <si>
-    <t>ID_Th230</t>
+    <t>CY_Th230</t>
   </si>
   <si>
     <t>236-2C0513d</t>
@@ -36,25 +42,7 @@
     <t>236-ZC0513e</t>
   </si>
   <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>230-ZC170517</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
+    <t>236-ZCxxxx</t>
   </si>
   <si>
     <t>ID_Th229</t>
@@ -63,16 +51,28 @@
     <t>229-ZCO118</t>
   </si>
   <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
     <t>RY_Th229</t>
   </si>
   <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
     <t>CY_Th229</t>
   </si>
   <si>
-    <t>RYb_Th230</t>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
   </si>
   <si>
     <t>ID_Th229</t>
@@ -81,78 +81,18 @@
     <t>229-ZCO118</t>
   </si>
   <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
     <t>RY_Th229</t>
   </si>
   <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
     <t>CY_Th229</t>
   </si>
   <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>236-2C0513d</t>
-  </si>
-  <si>
-    <t>236-ZC0513e</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>RYb_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>236-2C0513d</t>
-  </si>
-  <si>
-    <t>236-ZC0513e</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>RYb_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>236-2C0513d</t>
-  </si>
-  <si>
-    <t>236-ZC0513e</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>RYb_Th230</t>
-  </si>
-  <si>
     <t>ID_Th229</t>
   </si>
   <si>
@@ -163,264 +103,6 @@
   </si>
   <si>
     <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>230-ZC170517</t>
-  </si>
-  <si>
-    <t>230-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>230-ZC170517</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>236-2C0513d</t>
-  </si>
-  <si>
-    <t>236-ZC0513e</t>
-  </si>
-  <si>
-    <t>236-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>RYb_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>230-ZC170517</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>236-2C0513d</t>
-  </si>
-  <si>
-    <t>236-ZC0513e</t>
-  </si>
-  <si>
-    <t>236-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>RYb_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th230</t>
-  </si>
-  <si>
-    <t>236-2C0513d</t>
-  </si>
-  <si>
-    <t>236-ZC0513e</t>
-  </si>
-  <si>
-    <t>236-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th230</t>
-  </si>
-  <si>
-    <t>RX_Th230</t>
-  </si>
-  <si>
-    <t>CY_Th230</t>
-  </si>
-  <si>
-    <t>RYb_Th230</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>testspike</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>testspike</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
-  </si>
-  <si>
-    <t>CY_Th229</t>
-  </si>
-  <si>
-    <t>ID_Th229</t>
-  </si>
-  <si>
-    <t>229-ZCO118</t>
-  </si>
-  <si>
-    <t>229-ZCxxxx</t>
-  </si>
-  <si>
-    <t>RY_Th229</t>
-  </si>
-  <si>
-    <t>RX_Th229</t>
   </si>
   <si>
     <t>CY_Th229</t>
@@ -747,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -864,22 +546,6 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -925,26 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -1300,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,48 +961,38 @@
     <col min="1" max="1" width="12.85546875" customWidth="true"/>
     <col min="2" max="2" width="11" customWidth="true"/>
     <col min="3" max="3" width="10.5703125" customWidth="true"/>
-    <col min="4" max="4" width="10.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0">
         <v>16115.688</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
         <v>47.329999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0">
         <v>65535</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
         <v>44.551791899999998</v>
       </c>
     </row>
@@ -1364,45 +1004,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="true"/>
-    <col min="2" max="2" width="10.5703125" customWidth="true"/>
-    <col min="3" max="3" width="10.5703125" customWidth="true"/>
-    <col min="4" max="4" width="10.5703125" customWidth="true"/>
+    <col min="1" max="1" width="10.1640625" customWidth="true"/>
+    <col min="2" max="3" width="10.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>84</v>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="0">
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>665.66669999999999</v>
       </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="C2">
         <v>49156.878400000001</v>
       </c>
     </row>
@@ -1413,86 +1045,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true"/>
+    <col min="1" max="1" width="13.5" customWidth="true"/>
     <col min="2" max="2" width="11" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="10.5703125" customWidth="true"/>
-    <col min="4" max="4" width="12.140625" customWidth="true"/>
+    <col min="3" max="3" width="12.1640625" customWidth="true"/>
+    <col min="4" max="4" width="11.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>100</v>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="0">
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>4434.5871999999999</v>
       </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>59228.199999999997</v>
-      </c>
-      <c r="E2" s="0">
+      <c r="C2">
+        <v>59228.2</v>
+      </c>
+      <c r="D2">
         <v>818112390</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="0">
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>65535</v>
       </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
+      <c r="C3">
         <v>59456.544399999999</v>
       </c>
-      <c r="E3" s="0">
+      <c r="D3">
         <v>65535</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="0">
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>65535</v>
       </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C4">
         <v>48137</v>
       </c>
-      <c r="E4" s="0">
+      <c r="D4">
         <v>65535</v>
       </c>
     </row>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID_Th230</t>
   </si>
@@ -85,6 +85,57 @@
   </si>
   <si>
     <t>asdf</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>newspike</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>newspike</t>
   </si>
   <si>
     <t>RY_Th229</t>
@@ -429,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -546,6 +597,9 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -591,10 +645,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -965,18 +1022,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0">
         <v>16115.688</v>
@@ -987,7 +1044,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0">
         <v>65535</v>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>ID_Th230</t>
   </si>
@@ -157,6 +157,270 @@
   </si>
   <si>
     <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>236-newspike</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>236-newspike</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>236-newspike</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>236-newspike</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_U236</t>
+  </si>
+  <si>
+    <t>236-2C0513d</t>
+  </si>
+  <si>
+    <t>236-ZC0513e</t>
+  </si>
+  <si>
+    <t>236-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_U236</t>
+  </si>
+  <si>
+    <t>CY_U236</t>
+  </si>
+  <si>
+    <t>RYb_U236</t>
   </si>
 </sst>
 </file>
@@ -480,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -600,6 +864,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -645,13 +921,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -1110,65 +1398,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="true"/>
+    <col min="1" max="1" width="13.5703125" customWidth="true"/>
     <col min="2" max="2" width="11" customWidth="true"/>
-    <col min="3" max="3" width="12.1640625" customWidth="true"/>
-    <col min="4" max="4" width="11.6640625" customWidth="true"/>
+    <col min="3" max="3" width="12.140625" customWidth="true"/>
+    <col min="4" max="4" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="0">
         <v>4434.5871999999999</v>
       </c>
-      <c r="C2">
-        <v>59228.2</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="0">
+        <v>59228.199999999997</v>
+      </c>
+      <c r="D2" s="0">
         <v>818112390</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="0">
         <v>65535</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>59456.544399999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>65535</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="0">
         <v>65535</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>48137</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>65535</v>
       </c>
     </row>

--- a/misc/spikes.xlsx
+++ b/misc/spikes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>ID_Th230</t>
   </si>
@@ -421,6 +421,75 @@
   </si>
   <si>
     <t>RYb_U236</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>newspike229</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>newspike229</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>newspike229</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
+  </si>
+  <si>
+    <t>ID_Th229</t>
+  </si>
+  <si>
+    <t>229-ZCO118</t>
+  </si>
+  <si>
+    <t>229-ZCxxxx</t>
+  </si>
+  <si>
+    <t>RY_Th229</t>
+  </si>
+  <si>
+    <t>CY_Th229</t>
   </si>
 </sst>
 </file>
@@ -744,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -876,6 +945,10 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -921,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
@@ -940,6 +1013,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="true"/>
@@ -1310,18 +1387,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0">
         <v>16115.688</v>
@@ -1332,7 +1409,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B3" s="0">
         <v>65535</v>
